--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.883086</v>
+        <v>10.911025</v>
       </c>
       <c r="H2">
-        <v>29.649258</v>
+        <v>32.733075</v>
       </c>
       <c r="I2">
-        <v>0.03712034544454516</v>
+        <v>0.03114956057965708</v>
       </c>
       <c r="J2">
-        <v>0.03858449594745096</v>
+        <v>0.03274614149636444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N2">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O2">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P2">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q2">
-        <v>113.177710973502</v>
+        <v>135.64361512885</v>
       </c>
       <c r="R2">
-        <v>1018.599398761518</v>
+        <v>1220.79253615965</v>
       </c>
       <c r="S2">
-        <v>0.02540930211436378</v>
+        <v>0.01952155705058032</v>
       </c>
       <c r="T2">
-        <v>0.02902917450079754</v>
+        <v>0.02317032001206029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.883086</v>
+        <v>10.911025</v>
       </c>
       <c r="H3">
-        <v>29.649258</v>
+        <v>32.733075</v>
       </c>
       <c r="I3">
-        <v>0.03712034544454516</v>
+        <v>0.03114956057965708</v>
       </c>
       <c r="J3">
-        <v>0.03858449594745096</v>
+        <v>0.03274614149636444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.572043</v>
       </c>
       <c r="O3">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P3">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q3">
-        <v>5.178878721565999</v>
+        <v>5.717533491358332</v>
       </c>
       <c r="R3">
-        <v>46.609908494094</v>
+        <v>51.457801422225</v>
       </c>
       <c r="S3">
-        <v>0.001162699730521408</v>
+        <v>0.0008228559533313114</v>
       </c>
       <c r="T3">
-        <v>0.00132834082641948</v>
+        <v>0.0009766554846581082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.883086</v>
+        <v>10.911025</v>
       </c>
       <c r="H4">
-        <v>29.649258</v>
+        <v>32.733075</v>
       </c>
       <c r="I4">
-        <v>0.03712034544454516</v>
+        <v>0.03114956057965708</v>
       </c>
       <c r="J4">
-        <v>0.03858449594745096</v>
+        <v>0.03274614149636444</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N4">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O4">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P4">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q4">
-        <v>1.219533280056</v>
+        <v>0.4272029988333333</v>
       </c>
       <c r="R4">
-        <v>10.975799520504</v>
+        <v>3.8448269895</v>
       </c>
       <c r="S4">
-        <v>0.0002737949838791044</v>
+        <v>6.148219881917723E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003128004983645959</v>
+        <v>7.297380111608995E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.883086</v>
+        <v>10.911025</v>
       </c>
       <c r="H5">
-        <v>29.649258</v>
+        <v>32.733075</v>
       </c>
       <c r="I5">
-        <v>0.03712034544454516</v>
+        <v>0.03114956057965708</v>
       </c>
       <c r="J5">
-        <v>0.03858449594745096</v>
+        <v>0.03274614149636444</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N5">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O5">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P5">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q5">
-        <v>44.72778842088301</v>
+        <v>74.21187663323751</v>
       </c>
       <c r="R5">
-        <v>268.3667305252981</v>
+        <v>445.271259799425</v>
       </c>
       <c r="S5">
-        <v>0.0100417465516655</v>
+        <v>0.01068042445013134</v>
       </c>
       <c r="T5">
-        <v>0.007648212496590474</v>
+        <v>0.008451130946607203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.883086</v>
+        <v>10.911025</v>
       </c>
       <c r="H6">
-        <v>29.649258</v>
+        <v>32.733075</v>
       </c>
       <c r="I6">
-        <v>0.03712034544454516</v>
+        <v>0.03114956057965708</v>
       </c>
       <c r="J6">
-        <v>0.03858449594745096</v>
+        <v>0.03274614149636444</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N6">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O6">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P6">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q6">
-        <v>1.036943266206</v>
+        <v>0.4394233468333333</v>
       </c>
       <c r="R6">
-        <v>9.332489395854001</v>
+        <v>3.9548101215</v>
       </c>
       <c r="S6">
-        <v>0.0002328020641153644</v>
+        <v>6.324092679493441E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002659676252788726</v>
+        <v>7.506125192274808E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>378.459426</v>
       </c>
       <c r="I7">
-        <v>0.473824492669067</v>
+        <v>0.3601508510009905</v>
       </c>
       <c r="J7">
-        <v>0.4925137144670405</v>
+        <v>0.3786105006764219</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N7">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O7">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P7">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q7">
-        <v>1444.662511656294</v>
+        <v>1568.309873796748</v>
       </c>
       <c r="R7">
-        <v>13001.96260490665</v>
+        <v>14114.78886417073</v>
       </c>
       <c r="S7">
-        <v>0.3243382985591984</v>
+        <v>0.2257080117278588</v>
       </c>
       <c r="T7">
-        <v>0.3705443393836593</v>
+        <v>0.2678949659327958</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>378.459426</v>
       </c>
       <c r="I8">
-        <v>0.473824492669067</v>
+        <v>0.3601508510009905</v>
       </c>
       <c r="J8">
-        <v>0.4925137144670405</v>
+        <v>0.3786105006764219</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.572043</v>
       </c>
       <c r="O8">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P8">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q8">
         <v>66.10605460303532</v>
@@ -948,10 +948,10 @@
         <v>594.954491427318</v>
       </c>
       <c r="S8">
-        <v>0.01484133844507969</v>
+        <v>0.00951385080009901</v>
       </c>
       <c r="T8">
-        <v>0.01695567243871944</v>
+        <v>0.01129207916223757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>378.459426</v>
       </c>
       <c r="I9">
-        <v>0.473824492669067</v>
+        <v>0.3601508510009905</v>
       </c>
       <c r="J9">
-        <v>0.4925137144670405</v>
+        <v>0.3786105006764219</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N9">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O9">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P9">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q9">
-        <v>15.566793110232</v>
+        <v>4.939316019773333</v>
       </c>
       <c r="R9">
-        <v>140.101137992088</v>
+        <v>44.45384417796</v>
       </c>
       <c r="S9">
-        <v>0.003494869667246482</v>
+        <v>0.0007108564555674558</v>
       </c>
       <c r="T9">
-        <v>0.003992757493748373</v>
+        <v>0.0008437222254075904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>378.459426</v>
       </c>
       <c r="I10">
-        <v>0.473824492669067</v>
+        <v>0.3601508510009905</v>
       </c>
       <c r="J10">
-        <v>0.4925137144670405</v>
+        <v>0.3786105006764219</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N10">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O10">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P10">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q10">
-        <v>570.9300762945511</v>
+        <v>858.0368398935291</v>
       </c>
       <c r="R10">
-        <v>3425.580457767307</v>
+        <v>5148.221039361174</v>
       </c>
       <c r="S10">
-        <v>0.1281783724901582</v>
+        <v>0.1234869411698434</v>
       </c>
       <c r="T10">
-        <v>0.09762598819119378</v>
+        <v>0.097711876049036</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>378.459426</v>
       </c>
       <c r="I11">
-        <v>0.473824492669067</v>
+        <v>0.3601508510009905</v>
       </c>
       <c r="J11">
-        <v>0.4925137144670405</v>
+        <v>0.3786105006764219</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N11">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O11">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P11">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q11">
-        <v>13.236113811782</v>
+        <v>5.080607538813333</v>
       </c>
       <c r="R11">
-        <v>119.125024306038</v>
+        <v>45.72546784932</v>
       </c>
       <c r="S11">
-        <v>0.002971613507384098</v>
+        <v>0.0007311908476218289</v>
       </c>
       <c r="T11">
-        <v>0.003394956959719708</v>
+        <v>0.0008678573069448756</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.76116933333333</v>
+        <v>48.19780633333333</v>
       </c>
       <c r="H12">
-        <v>164.283508</v>
+        <v>144.593419</v>
       </c>
       <c r="I12">
-        <v>0.2056800398782896</v>
+        <v>0.1375984830193998</v>
       </c>
       <c r="J12">
-        <v>0.2137927481577795</v>
+        <v>0.1446511382757993</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N12">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O12">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P12">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q12">
-        <v>627.1061281242521</v>
+        <v>599.1851995878953</v>
       </c>
       <c r="R12">
-        <v>5643.95515311827</v>
+        <v>5392.666796291058</v>
       </c>
       <c r="S12">
-        <v>0.1407903458217909</v>
+        <v>0.08623353223450483</v>
       </c>
       <c r="T12">
-        <v>0.1608476887123168</v>
+        <v>0.1023513919748731</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.76116933333333</v>
+        <v>48.19780633333333</v>
       </c>
       <c r="H13">
-        <v>164.283508</v>
+        <v>144.593419</v>
       </c>
       <c r="I13">
-        <v>0.2056800398782896</v>
+        <v>0.1375984830193998</v>
       </c>
       <c r="J13">
-        <v>0.2137927481577795</v>
+        <v>0.1446511382757993</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.572043</v>
       </c>
       <c r="O13">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P13">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q13">
-        <v>28.69563764076044</v>
+        <v>25.25634135389077</v>
       </c>
       <c r="R13">
-        <v>258.260738766844</v>
+        <v>227.3070721850169</v>
       </c>
       <c r="S13">
-        <v>0.006442400362286014</v>
+        <v>0.00363484199503648</v>
       </c>
       <c r="T13">
-        <v>0.007360200743769412</v>
+        <v>0.00431422821448391</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.76116933333333</v>
+        <v>48.19780633333333</v>
       </c>
       <c r="H14">
-        <v>164.283508</v>
+        <v>144.593419</v>
       </c>
       <c r="I14">
-        <v>0.2056800398782896</v>
+        <v>0.1375984830193998</v>
       </c>
       <c r="J14">
-        <v>0.2137927481577795</v>
+        <v>0.1446511382757993</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N14">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O14">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P14">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q14">
-        <v>6.757309251056</v>
+        <v>1.887104777304444</v>
       </c>
       <c r="R14">
-        <v>60.81578325950401</v>
+        <v>16.98394299574</v>
       </c>
       <c r="S14">
-        <v>0.0015170700199129</v>
+        <v>0.000271588334884596</v>
       </c>
       <c r="T14">
-        <v>0.00173319558875585</v>
+        <v>0.0003223507538109836</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.76116933333333</v>
+        <v>48.19780633333333</v>
       </c>
       <c r="H15">
-        <v>164.283508</v>
+        <v>144.593419</v>
       </c>
       <c r="I15">
-        <v>0.2056800398782896</v>
+        <v>0.1375984830193998</v>
       </c>
       <c r="J15">
-        <v>0.2137927481577795</v>
+        <v>0.1446511382757993</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N15">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O15">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P15">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q15">
-        <v>247.832103820758</v>
+        <v>327.8197655675801</v>
       </c>
       <c r="R15">
-        <v>1486.992622924548</v>
+        <v>1966.918593405481</v>
       </c>
       <c r="S15">
-        <v>0.05564029123273544</v>
+        <v>0.04717916320466943</v>
       </c>
       <c r="T15">
-        <v>0.04237796368696044</v>
+        <v>0.03733159557990327</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.76116933333333</v>
+        <v>48.19780633333333</v>
       </c>
       <c r="H16">
-        <v>164.283508</v>
+        <v>144.593419</v>
       </c>
       <c r="I16">
-        <v>0.2056800398782896</v>
+        <v>0.1375984830193998</v>
       </c>
       <c r="J16">
-        <v>0.2137927481577795</v>
+        <v>0.1446511382757993</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N16">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O16">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P16">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q16">
-        <v>5.745596647622667</v>
+        <v>1.941086320397778</v>
       </c>
       <c r="R16">
-        <v>51.71036982860401</v>
+        <v>17.46977688358</v>
       </c>
       <c r="S16">
-        <v>0.001289932441564405</v>
+        <v>0.0002793572503044177</v>
       </c>
       <c r="T16">
-        <v>0.001473699425976956</v>
+        <v>0.0003315717527281035</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.3092165</v>
+        <v>51.234875</v>
       </c>
       <c r="H17">
-        <v>60.618433</v>
+        <v>102.46975</v>
       </c>
       <c r="I17">
-        <v>0.1138398053637809</v>
+        <v>0.1462689199780642</v>
       </c>
       <c r="J17">
-        <v>0.07888668520572513</v>
+        <v>0.102510654211286</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N17">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O17">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P17">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q17">
-        <v>347.0907512967406</v>
+        <v>636.9414116157501</v>
       </c>
       <c r="R17">
-        <v>2082.544507780443</v>
+        <v>3821.6484696945</v>
       </c>
       <c r="S17">
-        <v>0.07792465216817496</v>
+        <v>0.09166733054794132</v>
       </c>
       <c r="T17">
-        <v>0.05935066130565238</v>
+        <v>0.07253387892997573</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>30.3092165</v>
+        <v>51.234875</v>
       </c>
       <c r="H18">
-        <v>60.618433</v>
+        <v>102.46975</v>
       </c>
       <c r="I18">
-        <v>0.1138398053637809</v>
+        <v>0.1462689199780642</v>
       </c>
       <c r="J18">
-        <v>0.07888668520572513</v>
+        <v>0.102510654211286</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.572043</v>
       </c>
       <c r="O18">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P18">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q18">
-        <v>15.88246387810316</v>
+        <v>26.84780886654166</v>
       </c>
       <c r="R18">
-        <v>95.29478326861899</v>
+        <v>161.08685319925</v>
       </c>
       <c r="S18">
-        <v>0.003565740281614973</v>
+        <v>0.003863882807704645</v>
       </c>
       <c r="T18">
-        <v>0.002715816341423244</v>
+        <v>0.003057385942171495</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>30.3092165</v>
+        <v>51.234875</v>
       </c>
       <c r="H19">
-        <v>60.618433</v>
+        <v>102.46975</v>
       </c>
       <c r="I19">
-        <v>0.1138398053637809</v>
+        <v>0.1462689199780642</v>
       </c>
       <c r="J19">
-        <v>0.07888668520572513</v>
+        <v>0.102510654211286</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N19">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O19">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P19">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q19">
-        <v>3.740036079234</v>
+        <v>2.006016139166667</v>
       </c>
       <c r="R19">
-        <v>22.440216475404</v>
+        <v>12.036096835</v>
       </c>
       <c r="S19">
-        <v>0.0008396680392142477</v>
+        <v>0.0002887018196022549</v>
       </c>
       <c r="T19">
-        <v>0.000639526157871501</v>
+        <v>0.0002284419400534615</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.3092165</v>
+        <v>51.234875</v>
       </c>
       <c r="H20">
-        <v>60.618433</v>
+        <v>102.46975</v>
       </c>
       <c r="I20">
-        <v>0.1138398053637809</v>
+        <v>0.1462689199780642</v>
       </c>
       <c r="J20">
-        <v>0.07888668520572513</v>
+        <v>0.102510654211286</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N20">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O20">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P20">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q20">
-        <v>137.1701331764933</v>
+        <v>348.4765384388125</v>
       </c>
       <c r="R20">
-        <v>548.6805327059731</v>
+        <v>1393.90615375525</v>
       </c>
       <c r="S20">
-        <v>0.03079579296108098</v>
+        <v>0.05015204452830259</v>
       </c>
       <c r="T20">
-        <v>0.0156369058812309</v>
+        <v>0.0264559707670637</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.3092165</v>
+        <v>51.234875</v>
       </c>
       <c r="H21">
-        <v>60.618433</v>
+        <v>102.46975</v>
       </c>
       <c r="I21">
-        <v>0.1138398053637809</v>
+        <v>0.1462689199780642</v>
       </c>
       <c r="J21">
-        <v>0.07888668520572513</v>
+        <v>0.102510654211286</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N21">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O21">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P21">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q21">
-        <v>3.1800733043965</v>
+        <v>2.063399199166667</v>
       </c>
       <c r="R21">
-        <v>19.080439826379</v>
+        <v>12.380395195</v>
       </c>
       <c r="S21">
-        <v>0.0007139519136957282</v>
+        <v>0.0002969602745134041</v>
       </c>
       <c r="T21">
-        <v>0.0005437755195471146</v>
+        <v>0.0002349766320216178</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>45.13783733333333</v>
+        <v>113.7817686666667</v>
       </c>
       <c r="H22">
-        <v>135.413512</v>
+        <v>341.3453060000001</v>
       </c>
       <c r="I22">
-        <v>0.1695353166443174</v>
+        <v>0.3248321854218885</v>
       </c>
       <c r="J22">
-        <v>0.176222356222004</v>
+        <v>0.3414815653401283</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N22">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O22">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P22">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q22">
-        <v>516.903030863128</v>
+        <v>1414.511509019655</v>
       </c>
       <c r="R22">
-        <v>4652.127277768152</v>
+        <v>12730.60358117689</v>
       </c>
       <c r="S22">
-        <v>0.1160488682979866</v>
+        <v>0.203573659517989</v>
       </c>
       <c r="T22">
-        <v>0.1325814787545052</v>
+        <v>0.241623494726195</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>45.13783733333333</v>
+        <v>113.7817686666667</v>
       </c>
       <c r="H23">
-        <v>135.413512</v>
+        <v>341.3453060000001</v>
       </c>
       <c r="I23">
-        <v>0.1695353166443174</v>
+        <v>0.3248321854218885</v>
       </c>
       <c r="J23">
-        <v>0.176222356222004</v>
+        <v>0.3414815653401283</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.572043</v>
       </c>
       <c r="O23">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P23">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q23">
-        <v>23.65287373833511</v>
+        <v>59.62327765335088</v>
       </c>
       <c r="R23">
-        <v>212.875863645016</v>
+        <v>536.6094988801581</v>
       </c>
       <c r="S23">
-        <v>0.005310259498276731</v>
+        <v>0.008580862542972153</v>
       </c>
       <c r="T23">
-        <v>0.006066772276002459</v>
+        <v>0.01018470660844422</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>45.13783733333333</v>
+        <v>113.7817686666667</v>
       </c>
       <c r="H24">
-        <v>135.413512</v>
+        <v>341.3453060000001</v>
       </c>
       <c r="I24">
-        <v>0.1695353166443174</v>
+        <v>0.3248321854218885</v>
       </c>
       <c r="J24">
-        <v>0.176222356222004</v>
+        <v>0.3414815653401283</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,28 +1922,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N24">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O24">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P24">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q24">
-        <v>5.569828575584</v>
+        <v>4.454935515862222</v>
       </c>
       <c r="R24">
-        <v>50.128457180256</v>
+        <v>40.09441964276</v>
       </c>
       <c r="S24">
-        <v>0.001250471102347752</v>
+        <v>0.0006411453848892869</v>
       </c>
       <c r="T24">
-        <v>0.001428616326212959</v>
+        <v>0.0007609814987426287</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>45.13783733333333</v>
+        <v>113.7817686666667</v>
       </c>
       <c r="H25">
-        <v>135.413512</v>
+        <v>341.3453060000001</v>
       </c>
       <c r="I25">
-        <v>0.1695353166443174</v>
+        <v>0.3248321854218885</v>
       </c>
       <c r="J25">
-        <v>0.176222356222004</v>
+        <v>0.3414815653401283</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N25">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O25">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P25">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q25">
-        <v>204.279881610012</v>
+        <v>773.8923317838825</v>
       </c>
       <c r="R25">
-        <v>1225.679289660072</v>
+        <v>4643.353990703295</v>
       </c>
       <c r="S25">
-        <v>0.04586246870579069</v>
+        <v>0.1113770323179219</v>
       </c>
       <c r="T25">
-        <v>0.03493076672224324</v>
+        <v>0.08812963276489319</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.13783733333333</v>
+        <v>113.7817686666667</v>
       </c>
       <c r="H26">
-        <v>135.413512</v>
+        <v>341.3453060000001</v>
       </c>
       <c r="I26">
-        <v>0.1695353166443174</v>
+        <v>0.3248321854218885</v>
       </c>
       <c r="J26">
-        <v>0.176222356222004</v>
+        <v>0.3414815653401283</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N26">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O26">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P26">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q26">
-        <v>4.735907030850666</v>
+        <v>4.582371096768889</v>
       </c>
       <c r="R26">
-        <v>42.623163277656</v>
+        <v>41.24133987092001</v>
       </c>
       <c r="S26">
-        <v>0.001063249039915625</v>
+        <v>0.0006594856581161558</v>
       </c>
       <c r="T26">
-        <v>0.001214722143040211</v>
+        <v>0.0007827497418532642</v>
       </c>
     </row>
   </sheetData>
